--- a/Results_Saving/Small_Scale_Network/App_3_P2P.xlsx
+++ b/Results_Saving/Small_Scale_Network/App_3_P2P.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fymeng\Desktop\IWN\小型网络案例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Codes\Python_work\2023_Thesis_Codes\Service_availability\Results_Saving\Small_Scale_Network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88F277C-7E3C-446A-9A0D-09B95EF12D6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284737A0-9DA3-4C36-8675-F0430F740E83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="10" windowWidth="16090" windowHeight="6770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>outage</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
     <t>{'reroute': [], 'repair': [], 'degradation': []}</t>
   </si>
   <si>
@@ -82,6 +79,10 @@
   </si>
   <si>
     <t>1 2 5 7 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -494,12 +495,12 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:K4"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -542,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -563,13 +564,13 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -577,10 +578,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -598,13 +599,13 @@
         <v>3</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -612,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -633,13 +634,13 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
